--- a/需求以及搭建/软件功能模块.xlsx
+++ b/需求以及搭建/软件功能模块.xlsx
@@ -161,8 +161,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -188,14 +188,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +224,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -240,39 +277,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,7 +302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,7 +310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,13 +319,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,31 +351,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,19 +489,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,121 +519,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,17 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,30 +595,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,11 +616,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,6 +631,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -665,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,133 +677,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>

--- a/需求以及搭建/软件功能模块.xlsx
+++ b/需求以及搭建/软件功能模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27306" windowHeight="10773"/>
+    <workbookView windowWidth="27493" windowHeight="11033"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>往来客户</t>
   </si>
@@ -46,6 +46,9 @@
     <t>开票日期</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
@@ -122,9 +125,6 @@
   </si>
   <si>
     <t>项目成本支出</t>
-  </si>
-  <si>
-    <t>备注</t>
   </si>
   <si>
     <t>projectInnerPerson</t>
@@ -159,9 +159,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -181,6 +181,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -188,7 +241,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,8 +278,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,74 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -293,32 +310,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,187 +351,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,10 +560,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -584,50 +634,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,17 +657,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -665,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,133 +677,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,13 +1154,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultColWidth="4.27433628318584" defaultRowHeight="14.3"/>
   <cols>
     <col min="1" max="1" width="20.7699115044248" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -1171,9 +1171,11 @@
     <col min="7" max="8" width="18.5309734513274" customWidth="1"/>
     <col min="9" max="9" width="19.646017699115" customWidth="1"/>
     <col min="10" max="10" width="20.7699115044248" customWidth="1"/>
+    <col min="11" max="11" width="5.47787610619469" customWidth="1"/>
+    <col min="12" max="13" width="4.58407079646018" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,46 +1206,50 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1254,6 +1260,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2"/>
@@ -1290,10 +1297,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>5</v>
@@ -1302,13 +1309,13 @@
         <v>6</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1316,21 +1323,21 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1359,19 +1366,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
